--- a/db/status/dados_bancarios/save/Dados_bancarios.xlsx
+++ b/db/status/dados_bancarios/save/Dados_bancarios.xlsx
@@ -40,25 +40,25 @@
     <t>atualizado_em</t>
   </si>
   <si>
-    <t>ARTESANATOS BIBELO LTDA</t>
-  </si>
-  <si>
-    <t>31.095.761/0001-06</t>
-  </si>
-  <si>
-    <t>026.213.142-01</t>
-  </si>
-  <si>
-    <t>033</t>
-  </si>
-  <si>
-    <t>01230</t>
-  </si>
-  <si>
-    <t>0121</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>FIBONACCI ENGENHARIA E SERVICOS TECNICOS LTDA</t>
+  </si>
+  <si>
+    <t>21.315.711/0001-25</t>
+  </si>
+  <si>
+    <t>205.547.883-49</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>3664</t>
+  </si>
+  <si>
+    <t>23258</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="2">
-        <v>45715.62801839929</v>
+        <v>45721.0666977415</v>
       </c>
     </row>
   </sheetData>

--- a/db/status/dados_bancarios/save/Dados_bancarios.xlsx
+++ b/db/status/dados_bancarios/save/Dados_bancarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>empresa</t>
   </si>
@@ -43,7 +43,13 @@
     <t>FIBONACCI ENGENHARIA E SERVICOS TECNICOS LTDA</t>
   </si>
   <si>
+    <t>ARTESANATOS BIBELO LTDA</t>
+  </si>
+  <si>
     <t>21.315.711/0001-25</t>
+  </si>
+  <si>
+    <t>31.095.761/0001-06</t>
   </si>
   <si>
     <t>205.547.883-49</t>
@@ -420,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,25 +463,51 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>237</v>
+      </c>
+      <c r="E2">
+        <v>3664</v>
+      </c>
+      <c r="F2">
+        <v>23258</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45722.70454949074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2">
-        <v>45721.0666977415</v>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45722.74396898029</v>
       </c>
     </row>
   </sheetData>

--- a/db/status/dados_bancarios/save/Dados_bancarios.xlsx
+++ b/db/status/dados_bancarios/save/Dados_bancarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>empresa</t>
   </si>
@@ -43,28 +43,31 @@
     <t>FIBONACCI ENGENHARIA E SERVICOS TECNICOS LTDA</t>
   </si>
   <si>
-    <t>ARTESANATOS BIBELO LTDA</t>
+    <t>EFETAIO FACCAO DE PECAS DO VESTUARIO LTDA</t>
   </si>
   <si>
     <t>21.315.711/0001-25</t>
   </si>
   <si>
-    <t>31.095.761/0001-06</t>
+    <t>26.610.524/0001-98</t>
   </si>
   <si>
     <t>205.547.883-49</t>
   </si>
   <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>3664</t>
-  </si>
-  <si>
-    <t>23258</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>068.008.369-31</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2474</t>
+  </si>
+  <si>
+    <t>24372</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -492,22 +495,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2">
-        <v>45722.74396898029</v>
+        <v>45723.62274226774</v>
       </c>
     </row>
   </sheetData>
